--- a/DTT-Assessment-Hour-Log-1_updated_bonus (3).xlsx
+++ b/DTT-Assessment-Hour-Log-1_updated_bonus (3).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alara\Downloads\DTT Assessment - Unity\DTT Assessment - Unity - 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hayrettinilhan-my.sharepoint.com/personal/a_ilhan_hayrettinilhan_onmicrosoft_com/Documents/Alara/Code/Unity/Maze-Generation--Recursive-Backtracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819A1FD8-3DDD-4904-98CD-7DEF8FAE34FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -566,6 +566,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,21 +592,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1852,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1867,22 +1867,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1934,7 +1934,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
@@ -1967,22 +1967,22 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26">
         <v>0</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>12</v>
       </c>
